--- a/input/forces.xlsx
+++ b/input/forces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\source\repos\NaCl_Transport\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F107793C-A64C-4028-9DC9-9DBFF991A35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6281230-BD3F-42C5-9F50-A0E4B4979C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,10 +493,10 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,6 +785,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F55467E21B67B45A103D81F13D91C27" ma:contentTypeVersion="5" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="497d483694d8ce173e73306ed21102b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="70f6bd0b-068c-4d82-a58f-a0ed716713b3" xmlns:ns4="e0764678-775e-4b3a-9581-a9313f21c0ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8eee7468f92a1a094a484d92214eafc0" ns3:_="" ns4:_="">
     <xsd:import namespace="70f6bd0b-068c-4d82-a58f-a0ed716713b3"/>
@@ -955,22 +970,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34AC1221-5A6C-4F6B-98AA-6C97E1E179EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C28FD1-FDAB-4FA6-AACF-841A9330F756}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="70f6bd0b-068c-4d82-a58f-a0ed716713b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED14D200-017A-42DC-AFAC-3E80C18FB2E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -987,29 +1012,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C28FD1-FDAB-4FA6-AACF-841A9330F756}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="70f6bd0b-068c-4d82-a58f-a0ed716713b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34AC1221-5A6C-4F6B-98AA-6C97E1E179EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>